--- a/story/主线剧情/main/level_main_07-04_end.xlsx
+++ b/story/主线剧情/main/level_main_07-04_end.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="725">
   <si>
     <t>zh_CN</t>
   </si>
@@ -22,6 +22,9 @@
     <t>ja_JP</t>
   </si>
   <si>
+    <t>en_US</t>
+  </si>
+  <si>
     <t>ko_KR</t>
   </si>
   <si>
@@ -1473,6 +1476,726 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">[Decision(options="We won’t have much time after we take out that recon team.", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  You’re right. We’re on a tight schedule.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="The operators aren’t going to climb into the city from the sand.", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Um... we do that sometimes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  But the core city is on the move. It will be hard to get into the foundation levels.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  If the operators stand on the sand and wait for the city to pass over them, both height and speed are going to be an issue.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  If they can’t open the maintenance hatches and waste chutes on the underside, our distraction and our camouflage won’t be worth anything.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  So our five teams will take a vehicle and use the cover of the sandstorm to approach the city, then employ special equipment to climb into the city superstructure. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="We only sent five teams? ", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  We’re in no hurry to get the attention of the local Ursus brass.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  And we wouldn’t want them to send out an attack ship to smash Rhodes Island in the wilderness and kill our employees.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Even if they did that, you wouldn’t see a single report on it in any newspaper. The bankers and insurance executives will quietly cross out your name and shove all the lucre into their own nest eggs.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  No one will speak of you. No one wants to upset Ursus.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Our neutrality gives us some freedom to move in the cracks between forces, and that means we can’t be backed by any power.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  We survive by working in secret. Just like when we sent those teams to save you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Five teams. Leave tracks, cover the tracks; objective complete, objective failed. No matter what, Rhodes Island only ever deploys five teams.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="But more teams means more firepower!;......;Even if they’re not enough?", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Even for a city-state like Lungmen, wiping us out would be a trifle.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  You saw the L.G.D. They’re as strong as any country’s special forces. They certainly have a pharmaceutical company beat.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="So why do they need us? ", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Because this is about the Infected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Rhodes Island has departed Lungmen, and we’re bearing on the next trade port at fifteen kilometers per hour.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  We’ll be in the wilderness for a few weeks before we get there.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Aside from some nearby Rhodes Island communications specialists and some trusted vessels, no one will pick up our signal. We’ll plot a course around all the nomadic cities’ known paths.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Even if Lungmen decides to betray us, they won’t be able to find us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="But that’s not enough, is it?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="We need more oomph!;Need to be sharper.;We must have more to stake.", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Right. We will need something else to tip the scales.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  The both of you turned pretty gloomy, huh?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  I know how serious this is, but you don’t have to... smile like that, do you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Amiya... did I smile?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  I know you did. Your lips may not have moved, but I could feel it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  So here we are.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ...Yay!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  No, I have to say this: I do not intend to rebuild any sort of relationship with this person.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Heh. The feeling is mutual.;......;You may be forgetting there’s two sides to this.", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  *Sigh*...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Myself, Amiya, and three of our elite operators will lead the five teams.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  We have three combat teams, one recon team, and one spec ops team.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  You may want to meet the leader of one of those teams.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  Rosmontis! Wait!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Oh... Blaze.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  You’re badly wounded. Why are you here? You should go back. Go on.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  Are you going to sortie this time?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Yes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  I’ll get someone to replace you. How about Misery? He’s better at assault ops than you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  He’ll wave his hand and it’ll be all done. Let’s have him go.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  You don’t want me to go?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  Yeah. You shouldn’t.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  You’re giving me a weird feeling, Blaze.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  This isn’t like the missions you went on before!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Because I might die?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  Watch it!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  You can’t just... like... you can’t just come out and say it like that!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  You’re too young for such a dangerous mission. It’s not right!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  But Amiya’s going too.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  That’s because she...! She’s...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  She’s...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  Amiya...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  She’s just like me. She’s Infected. She’s an operator.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  And I checked the logs. Ace and Scout are both in Chernobog. They didn’t come back.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  That means they’re gone.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  I want to see. I want to know what happened. I want to see who’s running Reunion. I want to know who did what.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  I want to know what happened to Ace and Scout.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  Rosmontis? You don’t have to record... that kind of stuff.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  ...Blaze?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  Shit. What the hell am I saying...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  No, sorry, I shouldn’t have said that. Damn my big mouth!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  But, their deaths... They...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Blaze.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  I’m the one who’s wrong. We have happy memories, and painful ones too. You have to remember them both.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  You’re weird, Blaze. Your words are all scattered and broken.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  ...I don’t want to see you hurting so much. Why do you have to look back at them? You... you can let go of those memories.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  You can put them there, leave them there, and don’t look back.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  If I don’t look... then what’s the point in recording them?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  If I don’t look... then they’re forgotten.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  I won’t forget. I definitely won’t forget a single death. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  Ha. Right. You’re like me. You’re a Rhodes Island elite operator.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  I can’t go in your place. Really, I...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  Nng... ugh...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  You’re bleeding again?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  It’s fine.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  I’ll take you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  Oof.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  Rosmontis... You and Amiya look after yourselves.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Right. I will.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Do I have to? Meet her...?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Dr. {@nickname}...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Rhodes Island’s elite operators, for whatever reason, dedicate their talent and energy to the Rhodes Island project.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  The teams they bring with them fully support their work. Because our elite operators, to a certain degree, can directly determine how we use a certain tactic.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  But not all of them are... exactly as we imagine them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  You’ve met Elite Operator Blaze, Doctor. There are a lot of rumors about her, maybe you haven’t heard. The truth is, they’re a little exaggerated.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  But everyone has a different impression of her.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  But Doctor, I think... I think you’re capable of understanding her choices.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  ——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Judging by your reaction, you may have already met the one we’re talking about.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Oh? Huh...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Then... we’re okay?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Anything else I should know?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  That’s the basic plan. Honestly, um... it’s practical. A plan’s a plan, an operation's an operation.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  But the op is what matters. A plan is just a basic outline of an operation. And a misstep during an operation can shatter a plan.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="I hope we don’t have any bad omen specialists here.", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Engineering Operator"]  Uh oh... that ain’t good! We have a problem!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Engineering Operator"]  Dust density is still too low. This isn’t going to work with that light angle.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Engineering Operator"]  We're in the open here! If they look down from the bridge, they might spot us before we’re fully operational!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  But we can’t cover the machine any more than it already is. If we block the airflow, we won’t get enough of a current going to kick up the dust!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Engineering Operator"]  What do we do? Should we keep moving back...? We might not have time!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Nearl"]  ...I’ll take care of it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Nearl"]  Firewatch, keep an eye out, and tell me which way to adjust.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Firewatch"]  Lady? What... are you doing?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Nearl"]  Fixing the angle of the light
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Nearl"]  To mitigate the suffering of the world... I believe even the sun itself will bow to me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  Oh? Who’s that on the dune? Nearl? They’re not saddling up and not falling back?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  What’s she doing? Meditating? Posing... is she posing here?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  ...No, wait, what’s that light? Her whole body is glowing... No, uh oh! Too bright!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  Um, thanks, Captain...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  Thanks for covering my eyes, but it would be great if you weren’t squeezing like you wanted to crush my skull.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  What is Nearl doing?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  She’s okay? Well... you say that, Captain, but that light is brighter than the sun. What is she up to?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  Huh? No way... she’s pulling in all the light around us?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  Woah.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  Captain, all the light is starting to form together.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  I know. I’m just saying, could anyone but the Radiant Knight do something like this?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  Captain, look at the shadows of the sand dunes. Can you even tell what time of day it is?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  *Sigh*... I’m just trying to brighten the mood here. And once we kick up that sandstorm, we won’t be able to see the shadows, right?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Elysium"]  Shutting up. Sorry.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dobermann"]  Take us up! We’ve got some weird-colored balls clipping us!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Pilot"]  Don’t be scared, Instructor. Reunion casters aren’t good enough to shoot us down.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dobermann"]  We’re just a distraction, no need to put on an air show for Reunion!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Pilot"]  Put on a good enough show and Reunion might just surrender, huh?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Pilot"]  Isn’t that what they call a show of force?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dobermann"]  Aerial acrobatics isn’t a show of force!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Pilot"]  Hold on tight, Instructor!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dobermann"]  —I need a barf bag!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Nearl"]  The device is fully functional! Amiya, we’re ready to move!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Roger!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Drivers, maintain a steady speed! Check your maps. Use the sandstorm to cover your approach to the core city until you’re in range to deploy boarding gear! Engage!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  The sand will cover our tracks. Remember your protective gear, and don’t let sand into our sensitive equipment!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  But... I can see the sun. Why is the sunlight breaking through the sandstorm?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  The underside of the core city is so clear, it’s like... Arts.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  This wasn’t... part of the plan. Is that natural light?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Nearl"]  ...Don’t worry about it!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Roger that! Grappling hooks, prepare to fire! Operators, make sure the cables are securely fixed to the underside of the city!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Once all our operators are aboard, the vehicles will depart at once! I don’t usually say things like this, but I’m pretty sure that light just now is a good omen for us!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Nearl"]  ...Definitely!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Nearl"]  (I made it a little too intense and had to aim it at the ground, but let’s not tell her that part...)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Nearl"]  Hold on, the core city is speeding up?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Nearl"]  Our machines are wind-driven, but they can only keep the sandstorm up within a one kilometer range! If they break that range, they’ll spot us for sure!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Hurry up, everyone!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Pilot"]  We’re out of time! We have to slow down!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Pilot"]  If we drive out of the sandstorm,, Chernobog’s optical detection system will pick us right up and blow the whole op!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Pilot"]  How many people do you have left? Hurry up and...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="There aren’t any left.", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Pilot"]  Huh?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="I’ll do it myself!;(Silently put on a dust mask);Pass me the carabiner. I’m going myself.", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Pilot"]  It’s too dangerous, Doctor!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Pilot"]  You’ve never had operator training! We can’t send you up there alone!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Pilot"]  Didn’t Dr. Kal'tsit assign you any battlefield support?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Nope. What of it?;......;Maybe she thought I could use the exercise myself.", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I did.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="?!", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kal'tsit grabbed by the waist with one arm and pulled you onto the zipline with the other.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Seize your own fate next time, Dr. {@nickname}. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sandstorm was ferocious, and the “arm” holding you was very hard. You couldn’t be certain it belonged to Kal'tsit.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  All squads, take your positions!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  There is no room for error in the operation to come!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Core City Foundation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  Yeah, this is definitely a sign of someone breaking in here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  Confirmed one infiltrator. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  We can’t be sure if that bloodstain over there is Reunion’s or someone else’s. It hasn’t turned yet.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  It very well could be Officer Ch’en’s! We have to hurry.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Oh, Doctor!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  I’m glad you made it here safe.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="You call that safe...!;...close.;I had help. You were this close to losing me.", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ...Oh? Huh?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Th-that dangerous, huh? Did you get hurt, Dr. {@nickname}?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="I’m fine. Let’s go. Just some psychological trauma.", values="1")]
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">[Decision(options="정찰 부대를 처리하고 나면, 시간이 얼마 남지 않겠어.", values="1")]
 </t>
   </si>
@@ -2118,10 +2841,6 @@
   </si>
   <si>
     <t xml:space="preserve">[name="켈시"]  아니, 있어.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="?!", values="1")]
 </t>
   </si>
   <si>
@@ -2548,13 +3267,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C183"/>
+  <dimension ref="A1:D183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2564,2007 +3283,2556 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" t="s">
+        <v>367</v>
+      </c>
+      <c r="D4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D5" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" t="s">
+        <v>369</v>
+      </c>
+      <c r="D6" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" t="s">
+        <v>370</v>
+      </c>
+      <c r="D7" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D8" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" t="s">
+        <v>372</v>
+      </c>
+      <c r="D9" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" t="s">
+        <v>373</v>
+      </c>
+      <c r="D10" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" t="s">
+        <v>374</v>
+      </c>
+      <c r="D11" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" t="s">
+        <v>375</v>
+      </c>
+      <c r="D12" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" t="s">
+        <v>376</v>
+      </c>
+      <c r="D13" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" t="s">
+        <v>377</v>
+      </c>
+      <c r="D14" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" t="s">
+        <v>378</v>
+      </c>
+      <c r="D15" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" t="s">
+        <v>379</v>
+      </c>
+      <c r="D16" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" t="s">
+        <v>380</v>
+      </c>
+      <c r="D17" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>201</v>
+      </c>
+      <c r="C18" t="s">
+        <v>381</v>
+      </c>
+      <c r="D18" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" t="s">
+        <v>382</v>
+      </c>
+      <c r="D19" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" t="s">
+        <v>383</v>
+      </c>
+      <c r="D20" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>204</v>
+      </c>
+      <c r="C21" t="s">
+        <v>384</v>
+      </c>
+      <c r="D21" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>205</v>
+      </c>
+      <c r="C22" t="s">
+        <v>385</v>
+      </c>
+      <c r="D22" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>206</v>
+      </c>
+      <c r="C23" t="s">
+        <v>386</v>
+      </c>
+      <c r="D23" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>207</v>
+      </c>
+      <c r="C24" t="s">
+        <v>387</v>
+      </c>
+      <c r="D24" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>208</v>
+      </c>
+      <c r="C25" t="s">
+        <v>388</v>
+      </c>
+      <c r="D25" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>209</v>
+      </c>
+      <c r="C26" t="s">
+        <v>389</v>
+      </c>
+      <c r="D26" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>210</v>
+      </c>
+      <c r="C27" t="s">
+        <v>390</v>
+      </c>
+      <c r="D27" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>211</v>
+      </c>
+      <c r="C28" t="s">
+        <v>391</v>
+      </c>
+      <c r="D28" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>212</v>
+      </c>
+      <c r="C29" t="s">
+        <v>392</v>
+      </c>
+      <c r="D29" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>213</v>
+      </c>
+      <c r="C30" t="s">
+        <v>393</v>
+      </c>
+      <c r="D30" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>214</v>
+      </c>
+      <c r="C31" t="s">
+        <v>394</v>
+      </c>
+      <c r="D31" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>215</v>
+      </c>
+      <c r="C32" t="s">
+        <v>395</v>
+      </c>
+      <c r="D32" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>216</v>
+      </c>
+      <c r="C33" t="s">
+        <v>396</v>
+      </c>
+      <c r="D33" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>217</v>
+      </c>
+      <c r="C34" t="s">
+        <v>397</v>
+      </c>
+      <c r="D34" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>218</v>
+      </c>
+      <c r="C35" t="s">
+        <v>398</v>
+      </c>
+      <c r="D35" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>219</v>
+      </c>
+      <c r="C36" t="s">
+        <v>399</v>
+      </c>
+      <c r="D36" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>220</v>
+      </c>
+      <c r="C37" t="s">
+        <v>400</v>
+      </c>
+      <c r="D37" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>221</v>
+      </c>
+      <c r="C38" t="s">
+        <v>401</v>
+      </c>
+      <c r="D38" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>222</v>
+      </c>
+      <c r="C39" t="s">
+        <v>402</v>
+      </c>
+      <c r="D39" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>223</v>
+      </c>
+      <c r="C40" t="s">
+        <v>403</v>
+      </c>
+      <c r="D40" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>224</v>
+      </c>
+      <c r="C41" t="s">
+        <v>404</v>
+      </c>
+      <c r="D41" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>225</v>
+      </c>
+      <c r="C42" t="s">
+        <v>405</v>
+      </c>
+      <c r="D42" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>226</v>
+      </c>
+      <c r="C43" t="s">
+        <v>406</v>
+      </c>
+      <c r="D43" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>227</v>
+      </c>
+      <c r="C44" t="s">
+        <v>407</v>
+      </c>
+      <c r="D44" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>228</v>
+      </c>
+      <c r="C45" t="s">
+        <v>408</v>
+      </c>
+      <c r="D45" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>229</v>
+      </c>
+      <c r="C46" t="s">
+        <v>409</v>
+      </c>
+      <c r="D46" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>230</v>
+      </c>
+      <c r="C47" t="s">
+        <v>410</v>
+      </c>
+      <c r="D47" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>231</v>
+      </c>
+      <c r="C48" t="s">
+        <v>411</v>
+      </c>
+      <c r="D48" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>232</v>
+      </c>
+      <c r="C49" t="s">
+        <v>412</v>
+      </c>
+      <c r="D49" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>233</v>
+      </c>
+      <c r="C50" t="s">
+        <v>413</v>
+      </c>
+      <c r="D50" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>234</v>
+      </c>
+      <c r="C51" t="s">
+        <v>414</v>
+      </c>
+      <c r="D51" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>235</v>
+      </c>
+      <c r="C52" t="s">
+        <v>415</v>
+      </c>
+      <c r="D52" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>236</v>
+      </c>
+      <c r="C53" t="s">
+        <v>416</v>
+      </c>
+      <c r="D53" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>237</v>
+      </c>
+      <c r="C54" t="s">
+        <v>417</v>
+      </c>
+      <c r="D54" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>238</v>
+      </c>
+      <c r="C55" t="s">
+        <v>418</v>
+      </c>
+      <c r="D55" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>239</v>
+      </c>
+      <c r="C56" t="s">
+        <v>419</v>
+      </c>
+      <c r="D56" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>240</v>
+      </c>
+      <c r="C57" t="s">
+        <v>420</v>
+      </c>
+      <c r="D57" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>241</v>
+      </c>
+      <c r="C58" t="s">
+        <v>421</v>
+      </c>
+      <c r="D58" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>242</v>
+      </c>
+      <c r="C59" t="s">
+        <v>422</v>
+      </c>
+      <c r="D59" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>243</v>
+      </c>
+      <c r="C60" t="s">
+        <v>423</v>
+      </c>
+      <c r="D60" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>244</v>
+      </c>
+      <c r="C61" t="s">
+        <v>424</v>
+      </c>
+      <c r="D61" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
+        <v>245</v>
+      </c>
+      <c r="C62" t="s">
+        <v>425</v>
+      </c>
+      <c r="D62" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>246</v>
+      </c>
+      <c r="C63" t="s">
+        <v>426</v>
+      </c>
+      <c r="D63" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>247</v>
+      </c>
+      <c r="C64" t="s">
+        <v>427</v>
+      </c>
+      <c r="D64" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>248</v>
+      </c>
+      <c r="C65" t="s">
+        <v>428</v>
+      </c>
+      <c r="D65" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
+        <v>249</v>
+      </c>
+      <c r="C66" t="s">
+        <v>429</v>
+      </c>
+      <c r="D66" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>250</v>
+      </c>
+      <c r="C67" t="s">
+        <v>430</v>
+      </c>
+      <c r="D67" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>251</v>
+      </c>
+      <c r="C68" t="s">
+        <v>431</v>
+      </c>
+      <c r="D68" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>252</v>
+      </c>
+      <c r="C69" t="s">
+        <v>432</v>
+      </c>
+      <c r="D69" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>253</v>
+      </c>
+      <c r="C70" t="s">
+        <v>433</v>
+      </c>
+      <c r="D70" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>254</v>
+      </c>
+      <c r="C71" t="s">
+        <v>434</v>
+      </c>
+      <c r="D71" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>255</v>
+      </c>
+      <c r="C72" t="s">
+        <v>435</v>
+      </c>
+      <c r="D72" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>256</v>
+      </c>
+      <c r="C73" t="s">
+        <v>436</v>
+      </c>
+      <c r="D73" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" t="s">
+        <v>257</v>
+      </c>
+      <c r="C74" t="s">
+        <v>437</v>
+      </c>
+      <c r="D74" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>258</v>
+      </c>
+      <c r="C75" t="s">
+        <v>438</v>
+      </c>
+      <c r="D75" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
+        <v>259</v>
+      </c>
+      <c r="C76" t="s">
+        <v>439</v>
+      </c>
+      <c r="D76" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" t="s">
+        <v>260</v>
+      </c>
+      <c r="C77" t="s">
+        <v>440</v>
+      </c>
+      <c r="D77" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" t="s">
+        <v>261</v>
+      </c>
+      <c r="C78" t="s">
+        <v>441</v>
+      </c>
+      <c r="D78" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" t="s">
+        <v>262</v>
+      </c>
+      <c r="C79" t="s">
+        <v>442</v>
+      </c>
+      <c r="D79" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" t="s">
+        <v>263</v>
+      </c>
+      <c r="C80" t="s">
+        <v>443</v>
+      </c>
+      <c r="D80" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" t="s">
+        <v>264</v>
+      </c>
+      <c r="C81" t="s">
+        <v>444</v>
+      </c>
+      <c r="D81" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" t="s">
+        <v>265</v>
+      </c>
+      <c r="C82" t="s">
+        <v>445</v>
+      </c>
+      <c r="D82" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
+        <v>266</v>
+      </c>
+      <c r="C83" t="s">
+        <v>446</v>
+      </c>
+      <c r="D83" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" t="s">
+        <v>267</v>
+      </c>
+      <c r="C84" t="s">
+        <v>447</v>
+      </c>
+      <c r="D84" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" t="s">
+        <v>268</v>
+      </c>
+      <c r="C85" t="s">
+        <v>448</v>
+      </c>
+      <c r="D85" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" t="s">
+        <v>269</v>
+      </c>
+      <c r="C86" t="s">
+        <v>449</v>
+      </c>
+      <c r="D86" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" t="s">
+        <v>270</v>
+      </c>
+      <c r="C87" t="s">
+        <v>450</v>
+      </c>
+      <c r="D87" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" t="s">
+        <v>271</v>
+      </c>
+      <c r="C88" t="s">
+        <v>451</v>
+      </c>
+      <c r="D88" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>272</v>
+      </c>
+      <c r="C89" t="s">
+        <v>452</v>
+      </c>
+      <c r="D89" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" t="s">
+        <v>273</v>
+      </c>
+      <c r="C90" t="s">
+        <v>453</v>
+      </c>
+      <c r="D90" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" t="s">
+        <v>274</v>
+      </c>
+      <c r="C91" t="s">
+        <v>454</v>
+      </c>
+      <c r="D91" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" t="s">
+        <v>275</v>
+      </c>
+      <c r="C92" t="s">
+        <v>455</v>
+      </c>
+      <c r="D92" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93" t="s">
+        <v>276</v>
+      </c>
+      <c r="C93" t="s">
+        <v>456</v>
+      </c>
+      <c r="D93" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" t="s">
+        <v>277</v>
+      </c>
+      <c r="C94" t="s">
+        <v>457</v>
+      </c>
+      <c r="D94" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95" t="s">
+        <v>278</v>
+      </c>
+      <c r="C95" t="s">
+        <v>458</v>
+      </c>
+      <c r="D95" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96" t="s">
+        <v>279</v>
+      </c>
+      <c r="C96" t="s">
+        <v>459</v>
+      </c>
+      <c r="D96" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97" t="s">
+        <v>280</v>
+      </c>
+      <c r="C97" t="s">
+        <v>460</v>
+      </c>
+      <c r="D97" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" t="s">
+        <v>281</v>
+      </c>
+      <c r="C98" t="s">
+        <v>461</v>
+      </c>
+      <c r="D98" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99" t="s">
+        <v>282</v>
+      </c>
+      <c r="C99" t="s">
+        <v>462</v>
+      </c>
+      <c r="D99" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" t="s">
+        <v>283</v>
+      </c>
+      <c r="C100" t="s">
+        <v>463</v>
+      </c>
+      <c r="D100" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>103</v>
+      </c>
+      <c r="B101" t="s">
+        <v>284</v>
+      </c>
+      <c r="C101" t="s">
+        <v>464</v>
+      </c>
+      <c r="D101" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>104</v>
+      </c>
+      <c r="B102" t="s">
+        <v>285</v>
+      </c>
+      <c r="C102" t="s">
+        <v>465</v>
+      </c>
+      <c r="D102" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103" t="s">
+        <v>286</v>
+      </c>
+      <c r="C103" t="s">
+        <v>466</v>
+      </c>
+      <c r="D103" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>106</v>
+      </c>
+      <c r="B104" t="s">
+        <v>287</v>
+      </c>
+      <c r="C104" t="s">
+        <v>467</v>
+      </c>
+      <c r="D104" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105" t="s">
+        <v>288</v>
+      </c>
+      <c r="C105" t="s">
+        <v>468</v>
+      </c>
+      <c r="D105" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>108</v>
+      </c>
+      <c r="B106" t="s">
+        <v>289</v>
+      </c>
+      <c r="C106" t="s">
+        <v>469</v>
+      </c>
+      <c r="D106" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>109</v>
+      </c>
+      <c r="B107" t="s">
+        <v>290</v>
+      </c>
+      <c r="C107" t="s">
+        <v>470</v>
+      </c>
+      <c r="D107" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>110</v>
+      </c>
+      <c r="B108" t="s">
+        <v>291</v>
+      </c>
+      <c r="C108" t="s">
+        <v>471</v>
+      </c>
+      <c r="D108" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>111</v>
+      </c>
+      <c r="B109" t="s">
+        <v>292</v>
+      </c>
+      <c r="C109" t="s">
+        <v>472</v>
+      </c>
+      <c r="D109" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>112</v>
+      </c>
+      <c r="B110" t="s">
+        <v>293</v>
+      </c>
+      <c r="C110" t="s">
+        <v>473</v>
+      </c>
+      <c r="D110" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>113</v>
+      </c>
+      <c r="B111" t="s">
+        <v>294</v>
+      </c>
+      <c r="C111" t="s">
+        <v>474</v>
+      </c>
+      <c r="D111" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>114</v>
+      </c>
+      <c r="B112" t="s">
+        <v>295</v>
+      </c>
+      <c r="C112" t="s">
+        <v>475</v>
+      </c>
+      <c r="D112" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>115</v>
+      </c>
+      <c r="B113" t="s">
+        <v>296</v>
+      </c>
+      <c r="C113" t="s">
+        <v>476</v>
+      </c>
+      <c r="D113" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>116</v>
+      </c>
+      <c r="B114" t="s">
+        <v>297</v>
+      </c>
+      <c r="C114" t="s">
+        <v>477</v>
+      </c>
+      <c r="D114" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>117</v>
+      </c>
+      <c r="B115" t="s">
+        <v>298</v>
+      </c>
+      <c r="C115" t="s">
+        <v>478</v>
+      </c>
+      <c r="D115" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>118</v>
+      </c>
+      <c r="B116" t="s">
+        <v>299</v>
+      </c>
+      <c r="C116" t="s">
+        <v>479</v>
+      </c>
+      <c r="D116" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117" t="s">
+        <v>300</v>
+      </c>
+      <c r="C117" t="s">
+        <v>480</v>
+      </c>
+      <c r="D117" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>120</v>
+      </c>
+      <c r="B118" t="s">
+        <v>301</v>
+      </c>
+      <c r="C118" t="s">
+        <v>481</v>
+      </c>
+      <c r="D118" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>121</v>
+      </c>
+      <c r="B119" t="s">
+        <v>302</v>
+      </c>
+      <c r="C119" t="s">
+        <v>482</v>
+      </c>
+      <c r="D119" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>122</v>
+      </c>
+      <c r="B120" t="s">
+        <v>303</v>
+      </c>
+      <c r="C120" t="s">
+        <v>483</v>
+      </c>
+      <c r="D120" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>123</v>
+      </c>
+      <c r="B121" t="s">
+        <v>304</v>
+      </c>
+      <c r="C121" t="s">
+        <v>484</v>
+      </c>
+      <c r="D121" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122" t="s">
+        <v>305</v>
+      </c>
+      <c r="C122" t="s">
+        <v>485</v>
+      </c>
+      <c r="D122" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123" t="s">
+        <v>306</v>
+      </c>
+      <c r="C123" t="s">
+        <v>486</v>
+      </c>
+      <c r="D123" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>126</v>
+      </c>
+      <c r="B124" t="s">
+        <v>307</v>
+      </c>
+      <c r="C124" t="s">
+        <v>487</v>
+      </c>
+      <c r="D124" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>127</v>
+      </c>
+      <c r="B125" t="s">
+        <v>308</v>
+      </c>
+      <c r="C125" t="s">
+        <v>488</v>
+      </c>
+      <c r="D125" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>128</v>
+      </c>
+      <c r="B126" t="s">
+        <v>309</v>
+      </c>
+      <c r="C126" t="s">
+        <v>489</v>
+      </c>
+      <c r="D126" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>129</v>
+      </c>
+      <c r="B127" t="s">
+        <v>310</v>
+      </c>
+      <c r="C127" t="s">
+        <v>490</v>
+      </c>
+      <c r="D127" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>130</v>
+      </c>
+      <c r="B128" t="s">
+        <v>311</v>
+      </c>
+      <c r="C128" t="s">
+        <v>491</v>
+      </c>
+      <c r="D128" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>131</v>
+      </c>
+      <c r="B129" t="s">
+        <v>312</v>
+      </c>
+      <c r="C129" t="s">
+        <v>492</v>
+      </c>
+      <c r="D129" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>132</v>
+      </c>
+      <c r="B130" t="s">
+        <v>313</v>
+      </c>
+      <c r="C130" t="s">
+        <v>493</v>
+      </c>
+      <c r="D130" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>133</v>
+      </c>
+      <c r="B131" t="s">
+        <v>314</v>
+      </c>
+      <c r="C131" t="s">
+        <v>494</v>
+      </c>
+      <c r="D131" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>134</v>
+      </c>
+      <c r="B132" t="s">
+        <v>315</v>
+      </c>
+      <c r="C132" t="s">
+        <v>495</v>
+      </c>
+      <c r="D132" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>135</v>
+      </c>
+      <c r="B133" t="s">
+        <v>316</v>
+      </c>
+      <c r="C133" t="s">
+        <v>496</v>
+      </c>
+      <c r="D133" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>136</v>
+      </c>
+      <c r="B134" t="s">
+        <v>317</v>
+      </c>
+      <c r="C134" t="s">
+        <v>497</v>
+      </c>
+      <c r="D134" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>137</v>
+      </c>
+      <c r="B135" t="s">
+        <v>318</v>
+      </c>
+      <c r="C135" t="s">
+        <v>498</v>
+      </c>
+      <c r="D135" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>138</v>
+      </c>
+      <c r="B136" t="s">
+        <v>319</v>
+      </c>
+      <c r="C136" t="s">
+        <v>499</v>
+      </c>
+      <c r="D136" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>139</v>
+      </c>
+      <c r="B137" t="s">
+        <v>320</v>
+      </c>
+      <c r="C137" t="s">
+        <v>500</v>
+      </c>
+      <c r="D137" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>140</v>
+      </c>
+      <c r="B138" t="s">
+        <v>321</v>
+      </c>
+      <c r="C138" t="s">
+        <v>501</v>
+      </c>
+      <c r="D138" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>141</v>
+      </c>
+      <c r="B139" t="s">
+        <v>322</v>
+      </c>
+      <c r="C139" t="s">
+        <v>502</v>
+      </c>
+      <c r="D139" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>142</v>
+      </c>
+      <c r="B140" t="s">
+        <v>323</v>
+      </c>
+      <c r="C140" t="s">
+        <v>503</v>
+      </c>
+      <c r="D140" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>143</v>
+      </c>
+      <c r="B141" t="s">
+        <v>324</v>
+      </c>
+      <c r="C141" t="s">
+        <v>504</v>
+      </c>
+      <c r="D141" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>144</v>
+      </c>
+      <c r="B142" t="s">
+        <v>325</v>
+      </c>
+      <c r="C142" t="s">
+        <v>505</v>
+      </c>
+      <c r="D142" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>145</v>
+      </c>
+      <c r="B143" t="s">
+        <v>326</v>
+      </c>
+      <c r="C143" t="s">
+        <v>506</v>
+      </c>
+      <c r="D143" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>146</v>
+      </c>
+      <c r="B144" t="s">
+        <v>327</v>
+      </c>
+      <c r="C144" t="s">
+        <v>507</v>
+      </c>
+      <c r="D144" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>147</v>
+      </c>
+      <c r="B145" t="s">
+        <v>328</v>
+      </c>
+      <c r="C145" t="s">
+        <v>508</v>
+      </c>
+      <c r="D145" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>148</v>
+      </c>
+      <c r="B146" t="s">
+        <v>329</v>
+      </c>
+      <c r="C146" t="s">
+        <v>509</v>
+      </c>
+      <c r="D146" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>149</v>
+      </c>
+      <c r="B147" t="s">
+        <v>330</v>
+      </c>
+      <c r="C147" t="s">
+        <v>510</v>
+      </c>
+      <c r="D147" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>150</v>
+      </c>
+      <c r="B148" t="s">
+        <v>331</v>
+      </c>
+      <c r="C148" t="s">
+        <v>511</v>
+      </c>
+      <c r="D148" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>151</v>
+      </c>
+      <c r="B149" t="s">
+        <v>332</v>
+      </c>
+      <c r="C149" t="s">
+        <v>512</v>
+      </c>
+      <c r="D149" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>152</v>
+      </c>
+      <c r="B150" t="s">
+        <v>333</v>
+      </c>
+      <c r="C150" t="s">
+        <v>513</v>
+      </c>
+      <c r="D150" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>153</v>
+      </c>
+      <c r="B151" t="s">
+        <v>334</v>
+      </c>
+      <c r="C151" t="s">
+        <v>514</v>
+      </c>
+      <c r="D151" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>154</v>
+      </c>
+      <c r="B152" t="s">
+        <v>335</v>
+      </c>
+      <c r="C152" t="s">
+        <v>515</v>
+      </c>
+      <c r="D152" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>155</v>
+      </c>
+      <c r="B153" t="s">
+        <v>336</v>
+      </c>
+      <c r="C153" t="s">
+        <v>516</v>
+      </c>
+      <c r="D153" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>156</v>
+      </c>
+      <c r="B154" t="s">
+        <v>337</v>
+      </c>
+      <c r="C154" t="s">
+        <v>517</v>
+      </c>
+      <c r="D154" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>157</v>
+      </c>
+      <c r="B155" t="s">
+        <v>338</v>
+      </c>
+      <c r="C155" t="s">
+        <v>518</v>
+      </c>
+      <c r="D155" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>158</v>
+      </c>
+      <c r="B156" t="s">
+        <v>339</v>
+      </c>
+      <c r="C156" t="s">
+        <v>519</v>
+      </c>
+      <c r="D156" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>159</v>
+      </c>
+      <c r="B157" t="s">
+        <v>340</v>
+      </c>
+      <c r="C157" t="s">
+        <v>520</v>
+      </c>
+      <c r="D157" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>160</v>
+      </c>
+      <c r="B158" t="s">
+        <v>341</v>
+      </c>
+      <c r="C158" t="s">
+        <v>521</v>
+      </c>
+      <c r="D158" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>161</v>
+      </c>
+      <c r="B159" t="s">
+        <v>342</v>
+      </c>
+      <c r="C159" t="s">
+        <v>522</v>
+      </c>
+      <c r="D159" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>162</v>
+      </c>
+      <c r="B160" t="s">
+        <v>343</v>
+      </c>
+      <c r="C160" t="s">
+        <v>523</v>
+      </c>
+      <c r="D160" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>163</v>
+      </c>
+      <c r="B161" t="s">
+        <v>344</v>
+      </c>
+      <c r="C161" t="s">
+        <v>524</v>
+      </c>
+      <c r="D161" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>164</v>
+      </c>
+      <c r="B162" t="s">
+        <v>345</v>
+      </c>
+      <c r="C162" t="s">
+        <v>525</v>
+      </c>
+      <c r="D162" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>165</v>
+      </c>
+      <c r="B163" t="s">
+        <v>346</v>
+      </c>
+      <c r="C163" t="s">
+        <v>526</v>
+      </c>
+      <c r="D163" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>166</v>
+      </c>
+      <c r="B164" t="s">
+        <v>347</v>
+      </c>
+      <c r="C164" t="s">
+        <v>527</v>
+      </c>
+      <c r="D164" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>167</v>
+      </c>
+      <c r="B165" t="s">
+        <v>348</v>
+      </c>
+      <c r="C165" t="s">
+        <v>528</v>
+      </c>
+      <c r="D165" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>168</v>
+      </c>
+      <c r="B166" t="s">
+        <v>349</v>
+      </c>
+      <c r="C166" t="s">
+        <v>529</v>
+      </c>
+      <c r="D166" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>169</v>
+      </c>
+      <c r="B167" t="s">
+        <v>350</v>
+      </c>
+      <c r="C167" t="s">
+        <v>530</v>
+      </c>
+      <c r="D167" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>170</v>
+      </c>
+      <c r="B168" t="s">
+        <v>351</v>
+      </c>
+      <c r="C168" t="s">
+        <v>531</v>
+      </c>
+      <c r="D168" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>171</v>
+      </c>
+      <c r="B169" t="s">
+        <v>352</v>
+      </c>
+      <c r="C169" t="s">
+        <v>532</v>
+      </c>
+      <c r="D169" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>172</v>
+      </c>
+      <c r="B170" t="s">
+        <v>353</v>
+      </c>
+      <c r="C170" t="s">
+        <v>533</v>
+      </c>
+      <c r="D170" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>173</v>
+      </c>
+      <c r="B171" t="s">
+        <v>354</v>
+      </c>
+      <c r="C171" t="s">
+        <v>534</v>
+      </c>
+      <c r="D171" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>174</v>
+      </c>
+      <c r="B172" t="s">
+        <v>174</v>
+      </c>
+      <c r="C172" t="s">
+        <v>174</v>
+      </c>
+      <c r="D172" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>175</v>
+      </c>
+      <c r="B173" t="s">
+        <v>355</v>
+      </c>
+      <c r="C173" t="s">
+        <v>535</v>
+      </c>
+      <c r="D173" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>176</v>
+      </c>
+      <c r="B174" t="s">
+        <v>356</v>
+      </c>
+      <c r="C174" t="s">
+        <v>536</v>
+      </c>
+      <c r="D174" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>177</v>
+      </c>
+      <c r="B175" t="s">
+        <v>357</v>
+      </c>
+      <c r="C175" t="s">
+        <v>537</v>
+      </c>
+      <c r="D175" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>178</v>
+      </c>
+      <c r="B176" t="s">
+        <v>358</v>
+      </c>
+      <c r="C176" t="s">
+        <v>538</v>
+      </c>
+      <c r="D176" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>179</v>
+      </c>
+      <c r="B177" t="s">
+        <v>359</v>
+      </c>
+      <c r="C177" t="s">
+        <v>539</v>
+      </c>
+      <c r="D177" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>180</v>
+      </c>
+      <c r="B178" t="s">
+        <v>360</v>
+      </c>
+      <c r="C178" t="s">
+        <v>540</v>
+      </c>
+      <c r="D178" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>181</v>
+      </c>
+      <c r="B179" t="s">
+        <v>361</v>
+      </c>
+      <c r="C179" t="s">
+        <v>541</v>
+      </c>
+      <c r="D179" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>182</v>
+      </c>
+      <c r="B180" t="s">
+        <v>362</v>
+      </c>
+      <c r="C180" t="s">
+        <v>542</v>
+      </c>
+      <c r="D180" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>183</v>
+      </c>
+      <c r="B181" t="s">
+        <v>363</v>
+      </c>
+      <c r="C181" t="s">
+        <v>543</v>
+      </c>
+      <c r="D181" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>184</v>
+      </c>
+      <c r="B182" t="s">
+        <v>364</v>
+      </c>
+      <c r="C182" t="s">
+        <v>544</v>
+      </c>
+      <c r="D182" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
         <v>185</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B183" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C5" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C6" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C7" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C8" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>191</v>
-      </c>
-      <c r="C9" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>192</v>
-      </c>
-      <c r="C10" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>193</v>
-      </c>
-      <c r="C11" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>194</v>
-      </c>
-      <c r="C12" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>195</v>
-      </c>
-      <c r="C13" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>196</v>
-      </c>
-      <c r="C14" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>197</v>
-      </c>
-      <c r="C15" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>198</v>
-      </c>
-      <c r="C16" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>199</v>
-      </c>
-      <c r="C17" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>200</v>
-      </c>
-      <c r="C18" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>201</v>
-      </c>
-      <c r="C19" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>202</v>
-      </c>
-      <c r="C20" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>203</v>
-      </c>
-      <c r="C21" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>204</v>
-      </c>
-      <c r="C22" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>205</v>
-      </c>
-      <c r="C23" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>206</v>
-      </c>
-      <c r="C24" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>207</v>
-      </c>
-      <c r="C25" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>208</v>
-      </c>
-      <c r="C26" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>209</v>
-      </c>
-      <c r="C27" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>210</v>
-      </c>
-      <c r="C28" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" t="s">
-        <v>211</v>
-      </c>
-      <c r="C29" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" t="s">
-        <v>212</v>
-      </c>
-      <c r="C30" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" t="s">
-        <v>213</v>
-      </c>
-      <c r="C31" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" t="s">
-        <v>214</v>
-      </c>
-      <c r="C32" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" t="s">
-        <v>215</v>
-      </c>
-      <c r="C33" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" t="s">
-        <v>216</v>
-      </c>
-      <c r="C34" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" t="s">
-        <v>217</v>
-      </c>
-      <c r="C35" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" t="s">
-        <v>218</v>
-      </c>
-      <c r="C36" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" t="s">
-        <v>219</v>
-      </c>
-      <c r="C37" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" t="s">
-        <v>220</v>
-      </c>
-      <c r="C38" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" t="s">
-        <v>221</v>
-      </c>
-      <c r="C39" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" t="s">
-        <v>222</v>
-      </c>
-      <c r="C40" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" t="s">
-        <v>223</v>
-      </c>
-      <c r="C41" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" t="s">
-        <v>224</v>
-      </c>
-      <c r="C42" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" t="s">
-        <v>225</v>
-      </c>
-      <c r="C43" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" t="s">
-        <v>226</v>
-      </c>
-      <c r="C44" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" t="s">
-        <v>227</v>
-      </c>
-      <c r="C45" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" t="s">
-        <v>228</v>
-      </c>
-      <c r="C46" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" t="s">
-        <v>229</v>
-      </c>
-      <c r="C47" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" t="s">
-        <v>230</v>
-      </c>
-      <c r="C48" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" t="s">
-        <v>231</v>
-      </c>
-      <c r="C49" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" t="s">
-        <v>232</v>
-      </c>
-      <c r="C50" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" t="s">
-        <v>233</v>
-      </c>
-      <c r="C51" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" t="s">
-        <v>234</v>
-      </c>
-      <c r="C52" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" t="s">
-        <v>235</v>
-      </c>
-      <c r="C53" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" t="s">
-        <v>236</v>
-      </c>
-      <c r="C54" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" t="s">
-        <v>237</v>
-      </c>
-      <c r="C55" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" t="s">
-        <v>238</v>
-      </c>
-      <c r="C56" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" t="s">
-        <v>239</v>
-      </c>
-      <c r="C57" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" t="s">
-        <v>240</v>
-      </c>
-      <c r="C58" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" t="s">
-        <v>241</v>
-      </c>
-      <c r="C59" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" t="s">
-        <v>242</v>
-      </c>
-      <c r="C60" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61" t="s">
-        <v>243</v>
-      </c>
-      <c r="C61" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" t="s">
-        <v>244</v>
-      </c>
-      <c r="C62" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" t="s">
-        <v>245</v>
-      </c>
-      <c r="C63" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" t="s">
-        <v>246</v>
-      </c>
-      <c r="C64" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65" t="s">
-        <v>247</v>
-      </c>
-      <c r="C65" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" t="s">
-        <v>248</v>
-      </c>
-      <c r="C66" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>68</v>
-      </c>
-      <c r="B67" t="s">
-        <v>249</v>
-      </c>
-      <c r="C67" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>69</v>
-      </c>
-      <c r="B68" t="s">
-        <v>250</v>
-      </c>
-      <c r="C68" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" t="s">
-        <v>251</v>
-      </c>
-      <c r="C69" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>71</v>
-      </c>
-      <c r="B70" t="s">
-        <v>252</v>
-      </c>
-      <c r="C70" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>72</v>
-      </c>
-      <c r="B71" t="s">
-        <v>253</v>
-      </c>
-      <c r="C71" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>73</v>
-      </c>
-      <c r="B72" t="s">
-        <v>254</v>
-      </c>
-      <c r="C72" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>74</v>
-      </c>
-      <c r="B73" t="s">
-        <v>255</v>
-      </c>
-      <c r="C73" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>75</v>
-      </c>
-      <c r="B74" t="s">
-        <v>256</v>
-      </c>
-      <c r="C74" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>76</v>
-      </c>
-      <c r="B75" t="s">
-        <v>257</v>
-      </c>
-      <c r="C75" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>77</v>
-      </c>
-      <c r="B76" t="s">
-        <v>258</v>
-      </c>
-      <c r="C76" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>78</v>
-      </c>
-      <c r="B77" t="s">
-        <v>259</v>
-      </c>
-      <c r="C77" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>79</v>
-      </c>
-      <c r="B78" t="s">
-        <v>260</v>
-      </c>
-      <c r="C78" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>80</v>
-      </c>
-      <c r="B79" t="s">
-        <v>261</v>
-      </c>
-      <c r="C79" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>81</v>
-      </c>
-      <c r="B80" t="s">
-        <v>262</v>
-      </c>
-      <c r="C80" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>82</v>
-      </c>
-      <c r="B81" t="s">
-        <v>263</v>
-      </c>
-      <c r="C81" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>83</v>
-      </c>
-      <c r="B82" t="s">
-        <v>264</v>
-      </c>
-      <c r="C82" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>84</v>
-      </c>
-      <c r="B83" t="s">
-        <v>265</v>
-      </c>
-      <c r="C83" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>85</v>
-      </c>
-      <c r="B84" t="s">
-        <v>266</v>
-      </c>
-      <c r="C84" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>86</v>
-      </c>
-      <c r="B85" t="s">
-        <v>267</v>
-      </c>
-      <c r="C85" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>87</v>
-      </c>
-      <c r="B86" t="s">
-        <v>268</v>
-      </c>
-      <c r="C86" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>88</v>
-      </c>
-      <c r="B87" t="s">
-        <v>269</v>
-      </c>
-      <c r="C87" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>89</v>
-      </c>
-      <c r="B88" t="s">
-        <v>270</v>
-      </c>
-      <c r="C88" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>90</v>
-      </c>
-      <c r="B89" t="s">
-        <v>271</v>
-      </c>
-      <c r="C89" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>91</v>
-      </c>
-      <c r="B90" t="s">
-        <v>272</v>
-      </c>
-      <c r="C90" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>92</v>
-      </c>
-      <c r="B91" t="s">
-        <v>273</v>
-      </c>
-      <c r="C91" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>93</v>
-      </c>
-      <c r="B92" t="s">
-        <v>274</v>
-      </c>
-      <c r="C92" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>94</v>
-      </c>
-      <c r="B93" t="s">
-        <v>275</v>
-      </c>
-      <c r="C93" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>95</v>
-      </c>
-      <c r="B94" t="s">
-        <v>276</v>
-      </c>
-      <c r="C94" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>96</v>
-      </c>
-      <c r="B95" t="s">
-        <v>277</v>
-      </c>
-      <c r="C95" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>97</v>
-      </c>
-      <c r="B96" t="s">
-        <v>278</v>
-      </c>
-      <c r="C96" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>98</v>
-      </c>
-      <c r="B97" t="s">
-        <v>279</v>
-      </c>
-      <c r="C97" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>99</v>
-      </c>
-      <c r="B98" t="s">
-        <v>280</v>
-      </c>
-      <c r="C98" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>100</v>
-      </c>
-      <c r="B99" t="s">
-        <v>281</v>
-      </c>
-      <c r="C99" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>101</v>
-      </c>
-      <c r="B100" t="s">
-        <v>282</v>
-      </c>
-      <c r="C100" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>102</v>
-      </c>
-      <c r="B101" t="s">
-        <v>283</v>
-      </c>
-      <c r="C101" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
-        <v>103</v>
-      </c>
-      <c r="B102" t="s">
-        <v>284</v>
-      </c>
-      <c r="C102" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="s">
-        <v>104</v>
-      </c>
-      <c r="B103" t="s">
-        <v>285</v>
-      </c>
-      <c r="C103" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" t="s">
-        <v>105</v>
-      </c>
-      <c r="B104" t="s">
-        <v>286</v>
-      </c>
-      <c r="C104" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" t="s">
-        <v>106</v>
-      </c>
-      <c r="B105" t="s">
-        <v>287</v>
-      </c>
-      <c r="C105" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="s">
-        <v>107</v>
-      </c>
-      <c r="B106" t="s">
-        <v>288</v>
-      </c>
-      <c r="C106" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" t="s">
-        <v>108</v>
-      </c>
-      <c r="B107" t="s">
-        <v>289</v>
-      </c>
-      <c r="C107" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" t="s">
-        <v>109</v>
-      </c>
-      <c r="B108" t="s">
-        <v>290</v>
-      </c>
-      <c r="C108" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" t="s">
-        <v>110</v>
-      </c>
-      <c r="B109" t="s">
-        <v>291</v>
-      </c>
-      <c r="C109" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" t="s">
-        <v>111</v>
-      </c>
-      <c r="B110" t="s">
-        <v>292</v>
-      </c>
-      <c r="C110" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="s">
-        <v>112</v>
-      </c>
-      <c r="B111" t="s">
-        <v>293</v>
-      </c>
-      <c r="C111" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="s">
-        <v>113</v>
-      </c>
-      <c r="B112" t="s">
-        <v>294</v>
-      </c>
-      <c r="C112" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" t="s">
-        <v>114</v>
-      </c>
-      <c r="B113" t="s">
-        <v>295</v>
-      </c>
-      <c r="C113" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" t="s">
-        <v>115</v>
-      </c>
-      <c r="B114" t="s">
-        <v>296</v>
-      </c>
-      <c r="C114" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" t="s">
-        <v>116</v>
-      </c>
-      <c r="B115" t="s">
-        <v>297</v>
-      </c>
-      <c r="C115" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" t="s">
-        <v>117</v>
-      </c>
-      <c r="B116" t="s">
-        <v>298</v>
-      </c>
-      <c r="C116" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" t="s">
-        <v>118</v>
-      </c>
-      <c r="B117" t="s">
-        <v>299</v>
-      </c>
-      <c r="C117" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" t="s">
-        <v>119</v>
-      </c>
-      <c r="B118" t="s">
-        <v>300</v>
-      </c>
-      <c r="C118" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" t="s">
-        <v>120</v>
-      </c>
-      <c r="B119" t="s">
-        <v>301</v>
-      </c>
-      <c r="C119" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" t="s">
-        <v>121</v>
-      </c>
-      <c r="B120" t="s">
-        <v>302</v>
-      </c>
-      <c r="C120" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" t="s">
-        <v>122</v>
-      </c>
-      <c r="B121" t="s">
-        <v>303</v>
-      </c>
-      <c r="C121" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" t="s">
-        <v>123</v>
-      </c>
-      <c r="B122" t="s">
-        <v>304</v>
-      </c>
-      <c r="C122" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" t="s">
-        <v>124</v>
-      </c>
-      <c r="B123" t="s">
-        <v>305</v>
-      </c>
-      <c r="C123" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" t="s">
-        <v>125</v>
-      </c>
-      <c r="B124" t="s">
-        <v>306</v>
-      </c>
-      <c r="C124" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" t="s">
-        <v>126</v>
-      </c>
-      <c r="B125" t="s">
-        <v>307</v>
-      </c>
-      <c r="C125" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" t="s">
-        <v>127</v>
-      </c>
-      <c r="B126" t="s">
-        <v>308</v>
-      </c>
-      <c r="C126" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" t="s">
-        <v>128</v>
-      </c>
-      <c r="B127" t="s">
-        <v>309</v>
-      </c>
-      <c r="C127" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" t="s">
-        <v>129</v>
-      </c>
-      <c r="B128" t="s">
-        <v>310</v>
-      </c>
-      <c r="C128" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" t="s">
-        <v>130</v>
-      </c>
-      <c r="B129" t="s">
-        <v>311</v>
-      </c>
-      <c r="C129" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" t="s">
-        <v>131</v>
-      </c>
-      <c r="B130" t="s">
-        <v>312</v>
-      </c>
-      <c r="C130" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" t="s">
-        <v>132</v>
-      </c>
-      <c r="B131" t="s">
-        <v>313</v>
-      </c>
-      <c r="C131" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" t="s">
-        <v>133</v>
-      </c>
-      <c r="B132" t="s">
-        <v>314</v>
-      </c>
-      <c r="C132" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" t="s">
-        <v>134</v>
-      </c>
-      <c r="B133" t="s">
-        <v>315</v>
-      </c>
-      <c r="C133" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" t="s">
-        <v>135</v>
-      </c>
-      <c r="B134" t="s">
-        <v>316</v>
-      </c>
-      <c r="C134" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" t="s">
-        <v>136</v>
-      </c>
-      <c r="B135" t="s">
-        <v>317</v>
-      </c>
-      <c r="C135" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" t="s">
-        <v>137</v>
-      </c>
-      <c r="B136" t="s">
-        <v>318</v>
-      </c>
-      <c r="C136" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" t="s">
-        <v>138</v>
-      </c>
-      <c r="B137" t="s">
-        <v>319</v>
-      </c>
-      <c r="C137" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" t="s">
-        <v>139</v>
-      </c>
-      <c r="B138" t="s">
-        <v>320</v>
-      </c>
-      <c r="C138" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" t="s">
-        <v>140</v>
-      </c>
-      <c r="B139" t="s">
-        <v>321</v>
-      </c>
-      <c r="C139" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" t="s">
-        <v>141</v>
-      </c>
-      <c r="B140" t="s">
-        <v>322</v>
-      </c>
-      <c r="C140" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" t="s">
-        <v>142</v>
-      </c>
-      <c r="B141" t="s">
-        <v>323</v>
-      </c>
-      <c r="C141" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" t="s">
-        <v>143</v>
-      </c>
-      <c r="B142" t="s">
-        <v>324</v>
-      </c>
-      <c r="C142" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" t="s">
-        <v>144</v>
-      </c>
-      <c r="B143" t="s">
-        <v>325</v>
-      </c>
-      <c r="C143" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" t="s">
-        <v>145</v>
-      </c>
-      <c r="B144" t="s">
-        <v>326</v>
-      </c>
-      <c r="C144" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" t="s">
-        <v>146</v>
-      </c>
-      <c r="B145" t="s">
-        <v>327</v>
-      </c>
-      <c r="C145" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" t="s">
-        <v>147</v>
-      </c>
-      <c r="B146" t="s">
-        <v>328</v>
-      </c>
-      <c r="C146" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" t="s">
-        <v>148</v>
-      </c>
-      <c r="B147" t="s">
-        <v>329</v>
-      </c>
-      <c r="C147" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" t="s">
-        <v>149</v>
-      </c>
-      <c r="B148" t="s">
-        <v>330</v>
-      </c>
-      <c r="C148" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" t="s">
-        <v>150</v>
-      </c>
-      <c r="B149" t="s">
-        <v>331</v>
-      </c>
-      <c r="C149" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" t="s">
-        <v>151</v>
-      </c>
-      <c r="B150" t="s">
-        <v>332</v>
-      </c>
-      <c r="C150" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" t="s">
-        <v>152</v>
-      </c>
-      <c r="B151" t="s">
-        <v>333</v>
-      </c>
-      <c r="C151" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" t="s">
-        <v>153</v>
-      </c>
-      <c r="B152" t="s">
-        <v>334</v>
-      </c>
-      <c r="C152" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" t="s">
-        <v>154</v>
-      </c>
-      <c r="B153" t="s">
-        <v>335</v>
-      </c>
-      <c r="C153" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" t="s">
-        <v>155</v>
-      </c>
-      <c r="B154" t="s">
-        <v>336</v>
-      </c>
-      <c r="C154" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" t="s">
-        <v>156</v>
-      </c>
-      <c r="B155" t="s">
-        <v>337</v>
-      </c>
-      <c r="C155" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" t="s">
-        <v>157</v>
-      </c>
-      <c r="B156" t="s">
-        <v>338</v>
-      </c>
-      <c r="C156" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" t="s">
-        <v>158</v>
-      </c>
-      <c r="B157" t="s">
-        <v>339</v>
-      </c>
-      <c r="C157" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" t="s">
-        <v>159</v>
-      </c>
-      <c r="B158" t="s">
-        <v>340</v>
-      </c>
-      <c r="C158" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" t="s">
-        <v>160</v>
-      </c>
-      <c r="B159" t="s">
-        <v>341</v>
-      </c>
-      <c r="C159" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" t="s">
-        <v>161</v>
-      </c>
-      <c r="B160" t="s">
-        <v>342</v>
-      </c>
-      <c r="C160" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" t="s">
-        <v>162</v>
-      </c>
-      <c r="B161" t="s">
-        <v>343</v>
-      </c>
-      <c r="C161" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" t="s">
-        <v>163</v>
-      </c>
-      <c r="B162" t="s">
-        <v>344</v>
-      </c>
-      <c r="C162" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" t="s">
-        <v>164</v>
-      </c>
-      <c r="B163" t="s">
-        <v>345</v>
-      </c>
-      <c r="C163" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" t="s">
-        <v>165</v>
-      </c>
-      <c r="B164" t="s">
-        <v>346</v>
-      </c>
-      <c r="C164" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" t="s">
-        <v>166</v>
-      </c>
-      <c r="B165" t="s">
-        <v>347</v>
-      </c>
-      <c r="C165" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" t="s">
-        <v>167</v>
-      </c>
-      <c r="B166" t="s">
-        <v>348</v>
-      </c>
-      <c r="C166" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" t="s">
-        <v>168</v>
-      </c>
-      <c r="B167" t="s">
-        <v>349</v>
-      </c>
-      <c r="C167" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" t="s">
-        <v>169</v>
-      </c>
-      <c r="B168" t="s">
-        <v>350</v>
-      </c>
-      <c r="C168" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" t="s">
-        <v>170</v>
-      </c>
-      <c r="B169" t="s">
-        <v>351</v>
-      </c>
-      <c r="C169" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" t="s">
-        <v>171</v>
-      </c>
-      <c r="B170" t="s">
-        <v>352</v>
-      </c>
-      <c r="C170" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" t="s">
-        <v>172</v>
-      </c>
-      <c r="B171" t="s">
-        <v>353</v>
-      </c>
-      <c r="C171" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" t="s">
-        <v>173</v>
-      </c>
-      <c r="B172" t="s">
-        <v>173</v>
-      </c>
-      <c r="C172" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" t="s">
-        <v>174</v>
-      </c>
-      <c r="B173" t="s">
-        <v>354</v>
-      </c>
-      <c r="C173" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" t="s">
-        <v>175</v>
-      </c>
-      <c r="B174" t="s">
-        <v>355</v>
-      </c>
-      <c r="C174" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" t="s">
-        <v>176</v>
-      </c>
-      <c r="B175" t="s">
-        <v>356</v>
-      </c>
-      <c r="C175" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" t="s">
-        <v>177</v>
-      </c>
-      <c r="B176" t="s">
-        <v>357</v>
-      </c>
-      <c r="C176" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177" t="s">
-        <v>178</v>
-      </c>
-      <c r="B177" t="s">
-        <v>358</v>
-      </c>
-      <c r="C177" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" t="s">
-        <v>179</v>
-      </c>
-      <c r="B178" t="s">
-        <v>359</v>
-      </c>
-      <c r="C178" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" t="s">
-        <v>180</v>
-      </c>
-      <c r="B179" t="s">
-        <v>360</v>
-      </c>
-      <c r="C179" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" t="s">
-        <v>181</v>
-      </c>
-      <c r="B180" t="s">
-        <v>361</v>
-      </c>
-      <c r="C180" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" t="s">
-        <v>182</v>
-      </c>
-      <c r="B181" t="s">
-        <v>362</v>
-      </c>
-      <c r="C181" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" t="s">
-        <v>183</v>
-      </c>
-      <c r="B182" t="s">
-        <v>363</v>
-      </c>
-      <c r="C182" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" t="s">
-        <v>184</v>
-      </c>
-      <c r="B183" t="s">
-        <v>364</v>
-      </c>
       <c r="C183" t="s">
-        <v>544</v>
+        <v>545</v>
+      </c>
+      <c r="D183" t="s">
+        <v>724</v>
       </c>
     </row>
   </sheetData>
